--- a/01_C#/学习笔记_NetCore.xlsx
+++ b/01_C#/学习笔记_NetCore.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45BAB4A8-0A69-4B56-91F7-8FDC80B065A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -455,6 +454,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>“是”</t>
@@ -1174,8 +1175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1195,6 +1196,8 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1276,6 +1279,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1283,6 +1288,8 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1393,9 +1400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
@@ -1413,9 +1417,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,10 +1428,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1457,7 +1464,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C899BEEF-9F53-4F23-9F8F-26F0B3D060D8}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1493,7 +1500,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D197A63-B20A-42B5-9286-1AA7940B0405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D197A63-B20A-42B5-9286-1AA7940B0405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1561,7 @@
         <xdr:cNvPr id="2054" name="AutoShape 6" descr="提示添加缺少的资产">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3DB56D-96CF-41F7-9A01-BB72F02942F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D3DB56D-96CF-41F7-9A01-BB72F02942F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1609,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B6A45F-D51F-457D-86C3-BB77DDA3DCD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57B6A45F-D51F-457D-86C3-BB77DDA3DCD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1726,7 +1733,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1903,740 +1910,740 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="23.25">
+    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="23.25">
+    <row r="21" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="17.25">
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="17.25">
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="17.25">
-      <c r="B43" s="19" t="s">
+    <row r="43" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="17.25">
-      <c r="B53" s="19" t="s">
+    <row r="53" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B53" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="23.25">
+    <row r="59" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="23.25">
+    <row r="68" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B72" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="B74" s="11" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" s="11" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B76" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="23.25">
+    <row r="79" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="B82" s="20" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="42.75">
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+    <row r="83" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="25"/>
+      <c r="C83" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="25"/>
+      <c r="E83" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.5">
-      <c r="B84" s="22" t="s">
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C84" s="20">
         <v>2</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.5">
-      <c r="B85" s="22" t="s">
+    <row r="85" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B85" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="20">
         <v>2.1</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="42.75">
-      <c r="B86" s="22" t="s">
+    <row r="86" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30">
-      <c r="A89" s="18" t="s">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="23.25">
+    <row r="95" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="B96" s="12" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="10"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
     </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="23" t="s">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="23" t="s">
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="23" t="s">
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="23" t="s">
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="24"/>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="23" t="s">
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+    </row>
+    <row r="113" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B113" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="23" t="s">
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="12" t="s">
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="16" t="s">
+    <row r="120" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B120" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="16" t="s">
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B121" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="16" t="s">
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+    </row>
+    <row r="122" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B122" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-    </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="16" t="s">
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+    </row>
+    <row r="123" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B123" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="16" t="s">
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+    </row>
+    <row r="124" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B124" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="16" t="s">
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+    </row>
+    <row r="125" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B125" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" s="16" t="s">
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+    </row>
+    <row r="126" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B126" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="16" t="s">
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+    </row>
+    <row r="127" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B127" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-    </row>
-    <row r="130" spans="2:2" ht="23.25">
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+    </row>
+    <row r="130" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B130" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="10"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="10"/>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="12" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="10"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B148" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="12" t="s">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="23.25">
+    <row r="152" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B152" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="23.25">
+    <row r="157" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B157" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="25" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="10"/>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="26" t="s">
+    <row r="163" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B163" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="26" t="s">
+    <row r="164" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B164" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="17.25">
-      <c r="B165" s="19" t="s">
+    <row r="165" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B165" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="12" t="s">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="12" t="s">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="12" t="s">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="12" t="s">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="17.25">
-      <c r="B172" s="19" t="s">
+    <row r="172" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B172" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>167</v>
       </c>
@@ -2647,150 +2654,146 @@
     <mergeCell ref="D82:D83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B74" r:id="rId1" display="https://docs.microsoft.com/zh-cn/visualstudio/msbuild/msbuild" xr:uid="{0F618BBA-0355-4AC0-92A7-A65DFD658262}"/>
-    <hyperlink ref="B75" r:id="rId2" display="https://docs.microsoft.com/zh-cn/nuget/" xr:uid="{E7C8C204-E5AF-49E2-9F02-F8B974029B24}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="12"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="12"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="14" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="16" t="s">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="16" t="s">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C15" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>49</v>
       </c>
@@ -2798,9 +2801,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{4748C8FF-4A9B-47E3-89F4-F596372AE11E}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{28AB8F69-E1C1-4E19-9AF2-E6A0A9F7F930}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{D826C0A4-98E9-456C-963C-848D1AEF2D6F}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2809,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2819,7 +2822,7 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
@@ -2830,7 +2833,7 @@
     <col min="8" max="8" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2868,7 +2871,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2880,7 +2883,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2916,7 +2919,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2928,7 +2931,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2940,7 +2943,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2952,7 +2955,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2964,7 +2967,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2988,7 +2991,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3000,7 +3003,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3012,7 +3015,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3024,7 +3027,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3036,7 +3039,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3048,7 +3051,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3060,7 +3063,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3072,7 +3075,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3084,7 +3087,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3096,7 +3099,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3108,7 +3111,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3120,7 +3123,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3132,7 +3135,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3144,7 +3147,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3156,7 +3159,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3168,7 +3171,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3180,7 +3183,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3192,7 +3195,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3204,7 +3207,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3223,14 +3226,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3238,234 +3241,234 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="16" t="s">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="17" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="17" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="17" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="17" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="17" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="17" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="17" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="17" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="17" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="17" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="17" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="17" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="17" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="17" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="17" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="17" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3475,14 +3478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3490,14 +3493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
